--- a/marking.xlsx
+++ b/marking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EuanB\Documents\GitHub\IMY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081293B-52DC-433E-B4C8-93EE715C3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B91640-6C20-4B6A-86B5-771D8C4FBAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4A00AD8-AF40-42EB-BBB1-916E531366E0}"/>
   </bookViews>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77514F8-A568-4F83-BDC3-18BFCEA9BB9A}">
   <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,7 @@
       <c r="A62" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
       <c r="A65" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="26"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,14 +1813,14 @@
       <c r="A73" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="26"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="26"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1964,7 @@
       <c r="A97" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="26"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2339,14 +2339,14 @@
       <c r="A149" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B149" s="27"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="9"/>
     </row>
     <row r="150" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="26"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="9"/>
     </row>
     <row r="151" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2558,14 +2558,14 @@
       <c r="A182" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B182" s="26"/>
+      <c r="B182" s="25"/>
       <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B183" s="26"/>
+      <c r="B183" s="25"/>
       <c r="C183" s="9"/>
       <c r="D183" s="5"/>
     </row>
